--- a/data/Negociado_de_Policia/NPPRincidentes_2023.xlsx
+++ b/data/Negociado_de_Policia/NPPRincidentes_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana.pagan\Desktop\Comite PARE\NPPR\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Desktop/Estadisticas-Sobre-Violencia-de-Genero-en-Puerto-Rico/data/Negociado_de_Policia/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F87B47-0159-1C43-A0DC-6D36C66D61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24280" windowHeight="10840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Áreas Policiacas</t>
   </si>
@@ -81,9 +82,6 @@
   </si>
   <si>
     <t>Utuado</t>
-  </si>
-  <si>
-    <t>Nota: Los datos estan disponibles desde 1 de enero 2023 hasta 30 de abril de 2023</t>
   </si>
   <si>
     <t>Estimados Anuales de Población por Área Policíaca 2022</t>
@@ -92,10 +90,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,11 +132,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -419,24 +417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -451,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -471,7 +469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,7 +489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -511,7 +509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -531,7 +529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -551,7 +549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -571,7 +569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -591,7 +589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -611,7 +609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -631,7 +629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -651,7 +649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -671,7 +669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -691,7 +689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -711,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -729,11 +727,6 @@
       </c>
       <c r="F15">
         <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
